--- a/mapfiles/template_mapsWAY.xlsx
+++ b/mapfiles/template_mapsWAY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="32">
   <si>
     <t>map1</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>0,10;-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            El formato del fichero es el siguiente:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            1ª línea: especifica 'way' (se eliminarán los bloques que crean los caminos) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        o 'blocks' (donde se añadirán los boques introducidos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            2ª línea: tamaño del mapa (ejemplo: 15x15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            3ª línea: se definirá la posición de los Agentes o robots (z,x;ángulo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            4ª línea en adelante: posición de los bloques o caminos con el formato z,x;tipobloque.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        */</t>
+  </si>
+  <si>
+    <t>z,x;tipobloque</t>
   </si>
 </sst>
 </file>
@@ -430,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AL43" sqref="AL43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4:AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2474,15 +2501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -2583,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -2700,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -2820,7 +2847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>13</v>
       </c>
@@ -2940,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -3060,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11</v>
       </c>
@@ -3179,8 +3206,11 @@
       <c r="AM25" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="AO25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -3300,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -3419,8 +3449,11 @@
       <c r="AM27" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AO27" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -3530,8 +3563,11 @@
       <c r="AM28" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="AO28" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -3650,8 +3686,11 @@
       <c r="AM29" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AO29" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -3770,8 +3809,11 @@
       <c r="AM30" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="AO30" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -3890,8 +3932,11 @@
       <c r="AM31" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AO31" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -4010,8 +4055,11 @@
       <c r="AM32" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AO32" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -4131,7 +4179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -4250,8 +4298,11 @@
       <c r="AM34" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="AO34" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -4371,7 +4422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4485,26 +4536,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AM37" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AM38" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>15</v>
       </c>
@@ -4603,7 +4654,7 @@
       </c>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -4675,7 +4726,7 @@
         <v>15,0;-1</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -4747,7 +4798,7 @@
         <v>14,0;-1</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -4819,7 +4870,7 @@
         <v>13,0;-1</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -4891,7 +4942,7 @@
         <v>12,0;-1</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -4963,7 +5014,7 @@
         <v>11,0;-1</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10</v>
       </c>
@@ -5035,7 +5086,7 @@
         <v>10,0;-1</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9</v>
       </c>

--- a/mapfiles/template_mapsWAY.xlsx
+++ b/mapfiles/template_mapsWAY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="32">
   <si>
     <t>map1</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4:AR7"/>
+    <sheetView tabSelected="1" topLeftCell="S31" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,64 +4658,109 @@
       <c r="A42" s="1">
         <v>15</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T42" s="1">
         <v>15</v>
       </c>
       <c r="U42" s="1" t="str">
         <f>IF(B42="O","",CONCATENATE(B2,";-1"))</f>
-        <v>15,15;-1</v>
+        <v/>
       </c>
       <c r="V42" s="1" t="str">
         <f t="shared" ref="V42:AJ57" si="5">IF(C42="O","",CONCATENATE(C2,";-1"))</f>
-        <v>15,14;-1</v>
+        <v/>
       </c>
       <c r="W42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,13;-1</v>
+        <v/>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,12;-1</v>
+        <v/>
       </c>
       <c r="Y42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,11;-1</v>
+        <v/>
       </c>
       <c r="Z42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,10;-1</v>
+        <v/>
       </c>
       <c r="AA42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,9;-1</v>
+        <v/>
       </c>
       <c r="AB42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,8;-1</v>
+        <v/>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,7;-1</v>
+        <v/>
       </c>
       <c r="AD42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,6;-1</v>
+        <v/>
       </c>
       <c r="AE42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,5;-1</v>
+        <v/>
       </c>
       <c r="AF42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,4;-1</v>
+        <v/>
       </c>
       <c r="AG42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,3;-1</v>
+        <v/>
       </c>
       <c r="AH42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,2;-1</v>
+        <v/>
       </c>
       <c r="AI42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4723,71 +4768,116 @@
       </c>
       <c r="AJ42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T43" s="1">
         <v>14</v>
       </c>
       <c r="U43" s="1" t="str">
         <f t="shared" ref="U43:U57" si="6">IF(B43="O","",CONCATENATE(B3,";-1"))</f>
-        <v>14,15;-1</v>
+        <v/>
       </c>
       <c r="V43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,14;-1</v>
+        <v/>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,13;-1</v>
+        <v/>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,12;-1</v>
+        <v/>
       </c>
       <c r="Y43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,11;-1</v>
+        <v/>
       </c>
       <c r="Z43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,10;-1</v>
+        <v/>
       </c>
       <c r="AA43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,9;-1</v>
+        <v/>
       </c>
       <c r="AB43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,8;-1</v>
+        <v/>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,7;-1</v>
+        <v/>
       </c>
       <c r="AD43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,6;-1</v>
+        <v/>
       </c>
       <c r="AE43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,5;-1</v>
+        <v/>
       </c>
       <c r="AF43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,4;-1</v>
+        <v/>
       </c>
       <c r="AG43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,3;-1</v>
+        <v/>
       </c>
       <c r="AH43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,2;-1</v>
+        <v/>
       </c>
       <c r="AI43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4795,23 +4885,32 @@
       </c>
       <c r="AJ43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T44" s="1">
         <v>13</v>
       </c>
       <c r="U44" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>13,15;-1</v>
+        <v/>
       </c>
       <c r="V44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,14;-1</v>
+        <v/>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4867,23 +4966,65 @@
       </c>
       <c r="AJ44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T45" s="1">
         <v>12</v>
       </c>
       <c r="U45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>12,15;-1</v>
+        <v/>
       </c>
       <c r="V45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,14;-1</v>
+        <v/>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4891,31 +5032,31 @@
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,12;-1</v>
+        <v/>
       </c>
       <c r="Y45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,11;-1</v>
+        <v/>
       </c>
       <c r="Z45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,10;-1</v>
+        <v/>
       </c>
       <c r="AA45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,9;-1</v>
+        <v/>
       </c>
       <c r="AB45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,8;-1</v>
+        <v/>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,7;-1</v>
+        <v/>
       </c>
       <c r="AD45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,6;-1</v>
+        <v/>
       </c>
       <c r="AE45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4923,39 +5064,81 @@
       </c>
       <c r="AF45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,4;-1</v>
+        <v/>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,3;-1</v>
+        <v/>
       </c>
       <c r="AH45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,2;-1</v>
+        <v/>
       </c>
       <c r="AI45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,1;-1</v>
+        <v/>
       </c>
       <c r="AJ45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T46" s="1">
         <v>11</v>
       </c>
       <c r="U46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>11,15;-1</v>
+        <v/>
       </c>
       <c r="V46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,14;-1</v>
+        <v/>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4963,31 +5146,31 @@
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,12;-1</v>
+        <v/>
       </c>
       <c r="Y46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,11;-1</v>
+        <v/>
       </c>
       <c r="Z46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,10;-1</v>
+        <v/>
       </c>
       <c r="AA46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,9;-1</v>
+        <v/>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,8;-1</v>
+        <v/>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,7;-1</v>
+        <v/>
       </c>
       <c r="AD46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,6;-1</v>
+        <v/>
       </c>
       <c r="AE46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4995,39 +5178,66 @@
       </c>
       <c r="AF46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,4;-1</v>
+        <v/>
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,3;-1</v>
+        <v/>
       </c>
       <c r="AH46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,2;-1</v>
+        <v/>
       </c>
       <c r="AI46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,1;-1</v>
+        <v/>
       </c>
       <c r="AJ46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T47" s="1">
         <v>10</v>
       </c>
       <c r="U47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>10,15;-1</v>
+        <v/>
       </c>
       <c r="V47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,14;-1</v>
+        <v/>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5035,11 +5245,11 @@
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,12;-1</v>
+        <v/>
       </c>
       <c r="Y47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,11;-1</v>
+        <v/>
       </c>
       <c r="Z47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5067,39 +5277,81 @@
       </c>
       <c r="AF47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,4;-1</v>
+        <v/>
       </c>
       <c r="AG47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,3;-1</v>
+        <v/>
       </c>
       <c r="AH47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,2;-1</v>
+        <v/>
       </c>
       <c r="AI47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,1;-1</v>
+        <v/>
       </c>
       <c r="AJ47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T48" s="1">
         <v>9</v>
       </c>
       <c r="U48" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>9,15;-1</v>
+        <v/>
       </c>
       <c r="V48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,14;-1</v>
+        <v/>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5107,31 +5359,31 @@
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,12;-1</v>
+        <v/>
       </c>
       <c r="Y48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,11;-1</v>
+        <v/>
       </c>
       <c r="Z48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,10;-1</v>
+        <v/>
       </c>
       <c r="AA48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,9;-1</v>
+        <v/>
       </c>
       <c r="AB48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,8;-1</v>
+        <v/>
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,7;-1</v>
+        <v/>
       </c>
       <c r="AD48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,6;-1</v>
+        <v/>
       </c>
       <c r="AE48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5139,39 +5391,72 @@
       </c>
       <c r="AF48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,4;-1</v>
+        <v/>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,3;-1</v>
+        <v/>
       </c>
       <c r="AH48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,2;-1</v>
+        <v/>
       </c>
       <c r="AI48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,1;-1</v>
+        <v/>
       </c>
       <c r="AJ48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>8</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T49" s="1">
         <v>8</v>
       </c>
       <c r="U49" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>8,15;-1</v>
+        <v/>
       </c>
       <c r="V49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,14;-1</v>
+        <v/>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5179,31 +5464,31 @@
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,12;-1</v>
+        <v/>
       </c>
       <c r="Y49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,11;-1</v>
+        <v/>
       </c>
       <c r="Z49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,10;-1</v>
+        <v/>
       </c>
       <c r="AA49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,9;-1</v>
+        <v/>
       </c>
       <c r="AB49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,8;-1</v>
+        <v/>
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,7;-1</v>
+        <v/>
       </c>
       <c r="AD49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,6;-1</v>
+        <v/>
       </c>
       <c r="AE49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5223,27 +5508,69 @@
       </c>
       <c r="AI49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,1;-1</v>
+        <v/>
       </c>
       <c r="AJ49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T50" s="1">
         <v>7</v>
       </c>
       <c r="U50" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>7,15;-1</v>
+        <v/>
       </c>
       <c r="V50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,14;-1</v>
+        <v/>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5251,43 +5578,43 @@
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,12;-1</v>
+        <v/>
       </c>
       <c r="Y50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,11;-1</v>
+        <v/>
       </c>
       <c r="Z50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,10;-1</v>
+        <v/>
       </c>
       <c r="AA50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,9;-1</v>
+        <v/>
       </c>
       <c r="AB50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,8;-1</v>
+        <v/>
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,7;-1</v>
+        <v/>
       </c>
       <c r="AD50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,6;-1</v>
+        <v/>
       </c>
       <c r="AE50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,5;-1</v>
+        <v/>
       </c>
       <c r="AF50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,4;-1</v>
+        <v/>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,3;-1</v>
+        <v/>
       </c>
       <c r="AH50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5295,27 +5622,54 @@
       </c>
       <c r="AI50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,1;-1</v>
+        <v/>
       </c>
       <c r="AJ50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>6</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T51" s="1">
         <v>6</v>
       </c>
       <c r="U51" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>6,15;-1</v>
+        <v/>
       </c>
       <c r="V51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,14;-1</v>
+        <v/>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5343,23 +5697,23 @@
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,7;-1</v>
+        <v/>
       </c>
       <c r="AD51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,6;-1</v>
+        <v/>
       </c>
       <c r="AE51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,5;-1</v>
+        <v/>
       </c>
       <c r="AF51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,4;-1</v>
+        <v/>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,3;-1</v>
+        <v/>
       </c>
       <c r="AH51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5367,47 +5721,80 @@
       </c>
       <c r="AI51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,1;-1</v>
+        <v/>
       </c>
       <c r="AJ51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T52" s="1">
         <v>5</v>
       </c>
       <c r="U52" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>5,15;-1</v>
+        <v/>
       </c>
       <c r="V52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,14;-1</v>
+        <v/>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,13;-1</v>
+        <v/>
       </c>
       <c r="X52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,12;-1</v>
+        <v/>
       </c>
       <c r="Y52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,11;-1</v>
+        <v/>
       </c>
       <c r="Z52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,10;-1</v>
+        <v/>
       </c>
       <c r="AA52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,9;-1</v>
+        <v/>
       </c>
       <c r="AB52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5415,11 +5802,11 @@
       </c>
       <c r="AC52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,7;-1</v>
+        <v/>
       </c>
       <c r="AD52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,6;-1</v>
+        <v/>
       </c>
       <c r="AE52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5439,24 +5826,57 @@
       </c>
       <c r="AI52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,1;-1</v>
+        <v/>
       </c>
       <c r="AJ52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T53" s="1">
@@ -5464,35 +5884,35 @@
       </c>
       <c r="U53" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>4,15;-1</v>
+        <v/>
       </c>
       <c r="V53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,14;-1</v>
+        <v/>
       </c>
       <c r="W53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,13;-1</v>
+        <v/>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,12;-1</v>
+        <v/>
       </c>
       <c r="Y53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,11;-1</v>
+        <v/>
       </c>
       <c r="Z53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,10;-1</v>
+        <v/>
       </c>
       <c r="AA53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,9;-1</v>
+        <v/>
       </c>
       <c r="AB53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,8;-1</v>
       </c>
       <c r="AC53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5508,30 +5928,69 @@
       </c>
       <c r="AF53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,4;-1</v>
+        <v/>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,3;-1</v>
+        <v/>
       </c>
       <c r="AH53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,2;-1</v>
+        <v/>
       </c>
       <c r="AI53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,1;-1</v>
+        <v/>
       </c>
       <c r="AJ53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T54" s="1">
@@ -5539,43 +5998,43 @@
       </c>
       <c r="U54" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>3,15;-1</v>
+        <v/>
       </c>
       <c r="V54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,14;-1</v>
+        <v/>
       </c>
       <c r="W54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,13;-1</v>
+        <v/>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,12;-1</v>
+        <v/>
       </c>
       <c r="Y54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,11;-1</v>
+        <v/>
       </c>
       <c r="Z54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,10;-1</v>
+        <v/>
       </c>
       <c r="AA54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,9;-1</v>
+        <v/>
       </c>
       <c r="AB54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3,8;-1</v>
       </c>
       <c r="AC54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,7;-1</v>
+        <v/>
       </c>
       <c r="AD54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,6;-1</v>
+        <v/>
       </c>
       <c r="AE54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5583,30 +6042,69 @@
       </c>
       <c r="AF54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,4;-1</v>
+        <v/>
       </c>
       <c r="AG54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,3;-1</v>
+        <v/>
       </c>
       <c r="AH54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,2;-1</v>
+        <v/>
       </c>
       <c r="AI54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,1;-1</v>
+        <v/>
       </c>
       <c r="AJ54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T55" s="1">
@@ -5614,43 +6112,43 @@
       </c>
       <c r="U55" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2,15;-1</v>
+        <v/>
       </c>
       <c r="V55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,14;-1</v>
+        <v/>
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,13;-1</v>
+        <v/>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,12;-1</v>
+        <v/>
       </c>
       <c r="Y55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,11;-1</v>
+        <v/>
       </c>
       <c r="Z55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,10;-1</v>
+        <v/>
       </c>
       <c r="AA55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,9;-1</v>
+        <v/>
       </c>
       <c r="AB55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2,8;-1</v>
       </c>
       <c r="AC55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,7;-1</v>
+        <v/>
       </c>
       <c r="AD55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,6;-1</v>
+        <v/>
       </c>
       <c r="AE55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5658,59 +6156,101 @@
       </c>
       <c r="AF55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,4;-1</v>
+        <v/>
       </c>
       <c r="AG55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,3;-1</v>
+        <v/>
       </c>
       <c r="AH55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,2;-1</v>
+        <v/>
       </c>
       <c r="AI55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,1;-1</v>
+        <v/>
       </c>
       <c r="AJ55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T56" s="1">
         <v>1</v>
       </c>
       <c r="U56" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1,15;-1</v>
+        <v/>
       </c>
       <c r="V56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,14;-1</v>
+        <v/>
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,13;-1</v>
+        <v/>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,12;-1</v>
+        <v/>
       </c>
       <c r="Y56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,11;-1</v>
+        <v/>
       </c>
       <c r="Z56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,10;-1</v>
+        <v/>
       </c>
       <c r="AA56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,9;-1</v>
+        <v/>
       </c>
       <c r="AB56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5718,11 +6258,11 @@
       </c>
       <c r="AC56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,7;-1</v>
+        <v/>
       </c>
       <c r="AD56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,6;-1</v>
+        <v/>
       </c>
       <c r="AE56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5730,59 +6270,101 @@
       </c>
       <c r="AF56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,4;-1</v>
+        <v/>
       </c>
       <c r="AG56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,3;-1</v>
+        <v/>
       </c>
       <c r="AH56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,2;-1</v>
+        <v/>
       </c>
       <c r="AI56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,1;-1</v>
+        <v/>
       </c>
       <c r="AJ56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,0;-1</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T57" s="1">
         <v>0</v>
       </c>
       <c r="U57" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0,15;-1</v>
+        <v/>
       </c>
       <c r="V57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,14;-1</v>
+        <v/>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,13;-1</v>
+        <v/>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,12;-1</v>
+        <v/>
       </c>
       <c r="Y57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,11;-1</v>
+        <v/>
       </c>
       <c r="Z57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,10;-1</v>
+        <v/>
       </c>
       <c r="AA57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,9;-1</v>
+        <v/>
       </c>
       <c r="AB57" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5790,11 +6372,11 @@
       </c>
       <c r="AC57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,7;-1</v>
+        <v/>
       </c>
       <c r="AD57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,6;-1</v>
+        <v/>
       </c>
       <c r="AE57" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5802,23 +6384,23 @@
       </c>
       <c r="AF57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,4;-1</v>
+        <v/>
       </c>
       <c r="AG57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,3;-1</v>
+        <v/>
       </c>
       <c r="AH57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,2;-1</v>
+        <v/>
       </c>
       <c r="AI57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,1;-1</v>
+        <v/>
       </c>
       <c r="AJ57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,0;-1</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/mapfiles/template_mapsWAY.xlsx
+++ b/mapfiles/template_mapsWAY.xlsx
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S31" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+    <sheetView tabSelected="1" topLeftCell="S34" workbookViewId="0">
+      <selection activeCell="AG53" sqref="AG53:AI53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,9 +4664,6 @@
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E42" s="1" t="s">
         <v>1</v>
       </c>
@@ -4691,13 +4688,13 @@
       <c r="L42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="N42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -4716,7 +4713,7 @@
       </c>
       <c r="W42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>15,13;-1</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4752,7 +4749,7 @@
       </c>
       <c r="AF42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>15,4;-1</v>
       </c>
       <c r="AG42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4764,7 +4761,7 @@
       </c>
       <c r="AI42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,1;-1</v>
+        <v/>
       </c>
       <c r="AJ42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4781,9 +4778,6 @@
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>1</v>
       </c>
@@ -4808,13 +4802,13 @@
       <c r="L43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="N43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -4833,7 +4827,7 @@
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14,13;-1</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4869,7 +4863,7 @@
       </c>
       <c r="AF43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14,4;-1</v>
       </c>
       <c r="AG43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4881,7 +4875,7 @@
       </c>
       <c r="AI43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,1;-1</v>
+        <v/>
       </c>
       <c r="AJ43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4898,6 +4892,39 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q44" s="1" t="s">
         <v>1</v>
       </c>
@@ -4918,35 +4945,35 @@
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,12;-1</v>
+        <v/>
       </c>
       <c r="Y44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,11;-1</v>
+        <v/>
       </c>
       <c r="Z44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,10;-1</v>
+        <v/>
       </c>
       <c r="AA44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,9;-1</v>
+        <v/>
       </c>
       <c r="AB44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,8;-1</v>
+        <v/>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,7;-1</v>
+        <v/>
       </c>
       <c r="AD44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,6;-1</v>
+        <v/>
       </c>
       <c r="AE44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,5;-1</v>
+        <v/>
       </c>
       <c r="AF44" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4954,15 +4981,15 @@
       </c>
       <c r="AG44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,3;-1</v>
+        <v/>
       </c>
       <c r="AH44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,2;-1</v>
+        <v/>
       </c>
       <c r="AI44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,1;-1</v>
+        <v/>
       </c>
       <c r="AJ44" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4988,24 +5015,6 @@
       <c r="G45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="O45" s="1" t="s">
         <v>1</v>
       </c>
@@ -5044,19 +5053,19 @@
       </c>
       <c r="AA45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,9;-1</v>
       </c>
       <c r="AB45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,8;-1</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,7;-1</v>
       </c>
       <c r="AD45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,6;-1</v>
       </c>
       <c r="AE45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5064,11 +5073,11 @@
       </c>
       <c r="AF45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,4;-1</v>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12,3;-1</v>
       </c>
       <c r="AH45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5093,18 +5102,6 @@
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I46" s="1" t="s">
         <v>1</v>
       </c>
@@ -5114,10 +5111,10 @@
       <c r="K46" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L46" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -5146,19 +5143,19 @@
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11,12;-1</v>
       </c>
       <c r="Y46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11,11;-1</v>
       </c>
       <c r="Z46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11,10;-1</v>
       </c>
       <c r="AA46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11,9;-1</v>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5174,7 +5171,7 @@
       </c>
       <c r="AE46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,5;-1</v>
+        <v/>
       </c>
       <c r="AF46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5182,7 +5179,7 @@
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11,3;-1</v>
       </c>
       <c r="AH46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5207,16 +5204,28 @@
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -5241,7 +5250,7 @@
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,13;-1</v>
+        <v/>
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5249,7 +5258,7 @@
       </c>
       <c r="Y47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10,11;-1</v>
       </c>
       <c r="Z47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5257,23 +5266,23 @@
       </c>
       <c r="AA47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,9;-1</v>
+        <v/>
       </c>
       <c r="AB47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,8;-1</v>
+        <v/>
       </c>
       <c r="AC47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,7;-1</v>
+        <v/>
       </c>
       <c r="AD47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,6;-1</v>
+        <v/>
       </c>
       <c r="AE47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,5;-1</v>
+        <v/>
       </c>
       <c r="AF47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5281,7 +5290,7 @@
       </c>
       <c r="AG47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10,3;-1</v>
       </c>
       <c r="AH47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5306,12 +5315,12 @@
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G48" s="1" t="s">
         <v>1</v>
       </c>
@@ -5319,18 +5328,6 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -5355,7 +5352,7 @@
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,13;-1</v>
+        <v/>
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5363,7 +5360,7 @@
       </c>
       <c r="Y48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9,11;-1</v>
       </c>
       <c r="Z48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5379,11 +5376,11 @@
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9,7;-1</v>
       </c>
       <c r="AD48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9,6;-1</v>
       </c>
       <c r="AE48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5391,11 +5388,11 @@
       </c>
       <c r="AF48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9,4;-1</v>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9,3;-1</v>
       </c>
       <c r="AH48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5420,12 +5417,12 @@
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G49" s="1" t="s">
         <v>1</v>
       </c>
@@ -5435,10 +5432,16 @@
       <c r="I49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="K49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -5460,7 +5463,7 @@
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,13;-1</v>
+        <v/>
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5468,7 +5471,7 @@
       </c>
       <c r="Y49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8,11;-1</v>
       </c>
       <c r="Z49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8,7;-1</v>
       </c>
       <c r="AD49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5492,19 +5495,19 @@
       </c>
       <c r="AE49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,5;-1</v>
+        <v/>
       </c>
       <c r="AF49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(M49="O","",CONCATENATE(M9,";-1"))</f>
         <v>8,4;-1</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,3;-1</v>
+        <v/>
       </c>
       <c r="AH49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,2;-1</v>
+        <v/>
       </c>
       <c r="AI49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5525,12 +5528,12 @@
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G50" s="1" t="s">
         <v>1</v>
       </c>
@@ -5540,19 +5543,16 @@
       <c r="I50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="K50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="N50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,13;-1</v>
+        <v/>
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Y50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7,11;-1</v>
       </c>
       <c r="Z50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7,7;-1</v>
       </c>
       <c r="AD50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AF50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7,4;-1</v>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AH50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,2;-1</v>
+        <v/>
       </c>
       <c r="AI50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5639,7 +5639,19 @@
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -5648,10 +5660,10 @@
       <c r="L51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="N51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -5673,11 +5685,11 @@
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,13;-1</v>
+        <v/>
       </c>
       <c r="X51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,12;-1</v>
+        <v/>
       </c>
       <c r="Y51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5685,19 +5697,19 @@
       </c>
       <c r="Z51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,10;-1</v>
+        <v/>
       </c>
       <c r="AA51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,9;-1</v>
+        <v/>
       </c>
       <c r="AB51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,8;-1</v>
+        <v/>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6,7;-1</v>
       </c>
       <c r="AD51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5709,7 +5721,7 @@
       </c>
       <c r="AF51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6,4;-1</v>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5717,7 +5729,7 @@
       </c>
       <c r="AH51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,2;-1</v>
+        <v/>
       </c>
       <c r="AI51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5744,19 +5756,25 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -5786,7 +5804,7 @@
       </c>
       <c r="Y52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5,11;-1</v>
       </c>
       <c r="Z52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5798,11 +5816,11 @@
       </c>
       <c r="AB52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,8;-1</v>
+        <v/>
       </c>
       <c r="AC52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5,7;-1</v>
       </c>
       <c r="AD52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5810,7 +5828,7 @@
       </c>
       <c r="AE52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,5;-1</v>
+        <v/>
       </c>
       <c r="AF52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5818,11 +5836,11 @@
       </c>
       <c r="AG52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,3;-1</v>
+        <v/>
       </c>
       <c r="AH52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,2;-1</v>
+        <v/>
       </c>
       <c r="AI52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5843,37 +5861,19 @@
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -5892,15 +5892,15 @@
       </c>
       <c r="W53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,13;-1</v>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,12;-1</v>
       </c>
       <c r="Y53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,11;-1</v>
       </c>
       <c r="Z53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5912,11 +5912,11 @@
       </c>
       <c r="AB53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,8;-1</v>
+        <v/>
       </c>
       <c r="AC53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,7;-1</v>
       </c>
       <c r="AD53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5924,23 +5924,23 @@
       </c>
       <c r="AE53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,5;-1</v>
+        <v/>
       </c>
       <c r="AF53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,4;-1</v>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,3;-1</v>
       </c>
       <c r="AH53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,2;-1</v>
       </c>
       <c r="AI53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4,1;-1</v>
       </c>
       <c r="AJ53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5957,9 +5957,6 @@
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
@@ -5972,10 +5969,13 @@
       <c r="H54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="W54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3,13;-1</v>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6026,11 +6026,11 @@
       </c>
       <c r="AB54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,8;-1</v>
+        <v/>
       </c>
       <c r="AC54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3,7;-1</v>
       </c>
       <c r="AD54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="AE54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,5;-1</v>
+        <v/>
       </c>
       <c r="AF54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6071,9 +6071,6 @@
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
@@ -6086,10 +6083,13 @@
       <c r="H55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2,13;-1</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6140,11 +6140,11 @@
       </c>
       <c r="AB55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,8;-1</v>
+        <v/>
       </c>
       <c r="AC55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2,7;-1</v>
       </c>
       <c r="AD55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="AE55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,5;-1</v>
+        <v/>
       </c>
       <c r="AF55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6185,9 +6185,6 @@
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
@@ -6200,10 +6197,13 @@
       <c r="H56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1,13;-1</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6254,11 +6254,11 @@
       </c>
       <c r="AB56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,8;-1</v>
+        <v/>
       </c>
       <c r="AC56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1,7;-1</v>
       </c>
       <c r="AD56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="AE56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,5;-1</v>
+        <v/>
       </c>
       <c r="AF56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6299,9 +6299,6 @@
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
@@ -6314,10 +6311,13 @@
       <c r="H57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0,13;-1</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6368,11 +6368,11 @@
       </c>
       <c r="AB57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,8;-1</v>
+        <v/>
       </c>
       <c r="AC57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0,7;-1</v>
       </c>
       <c r="AD57" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="AE57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,5;-1</v>
+        <v/>
       </c>
       <c r="AF57" s="1" t="str">
         <f t="shared" si="5"/>

--- a/mapfiles/template_mapsWAY.xlsx
+++ b/mapfiles/template_mapsWAY.xlsx
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S34" workbookViewId="0">
-      <selection activeCell="AG53" sqref="AG53:AI53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,175 +474,175 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
         <v>15</v>
-      </c>
-      <c r="C1" s="1">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="1">
         <v>15</v>
-      </c>
-      <c r="V1" s="1">
-        <v>14</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B17" si="0">$A2  &amp; "," &amp; B$1</f>
-        <v>15,15</v>
+        <v>0,0</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:Q17" si="1">$A2  &amp; "," &amp; C$1</f>
-        <v>15,14</v>
+        <v>0,1</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,13</v>
+        <v>0,2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,12</v>
+        <v>0,3</v>
       </c>
       <c r="F2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,11</v>
+        <v>0,4</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,10</v>
+        <v>0,5</v>
       </c>
       <c r="H2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,9</v>
+        <v>0,6</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,8</v>
+        <v>0,7</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,7</v>
+        <v>0,8</v>
       </c>
       <c r="K2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,6</v>
+        <v>0,9</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,5</v>
+        <v>0,10</v>
       </c>
       <c r="M2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,4</v>
+        <v>0,11</v>
       </c>
       <c r="N2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,3</v>
+        <v>0,12</v>
       </c>
       <c r="O2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,2</v>
+        <v>0,13</v>
       </c>
       <c r="P2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,1</v>
+        <v>0,14</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>15,0</v>
+        <v>0,15</v>
       </c>
       <c r="T2" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>1</v>
@@ -695,74 +695,74 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>14,15</v>
+        <v>1,0</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:P17" si="2">$A3  &amp; "," &amp; C$1</f>
-        <v>14,14</v>
+        <v>1,1</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,13</v>
+        <v>1,2</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,12</v>
+        <v>1,3</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,11</v>
+        <v>1,4</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,10</v>
+        <v>1,5</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,9</v>
+        <v>1,6</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,8</v>
+        <v>1,7</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,7</v>
+        <v>1,8</v>
       </c>
       <c r="K3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,6</v>
+        <v>1,9</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,5</v>
+        <v>1,10</v>
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,4</v>
+        <v>1,11</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,3</v>
+        <v>1,12</v>
       </c>
       <c r="O3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,2</v>
+        <v>1,13</v>
       </c>
       <c r="P3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>14,1</v>
+        <v>1,14</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>14,0</v>
+        <v>1,15</v>
       </c>
       <c r="T3" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>1</v>
@@ -815,74 +815,74 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>13,15</v>
+        <v>2,0</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,14</v>
+        <v>2,1</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,13</v>
+        <v>2,2</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,12</v>
+        <v>2,3</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,11</v>
+        <v>2,4</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,10</v>
+        <v>2,5</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,9</v>
+        <v>2,6</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,8</v>
+        <v>2,7</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,7</v>
+        <v>2,8</v>
       </c>
       <c r="K4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,6</v>
+        <v>2,9</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,5</v>
+        <v>2,10</v>
       </c>
       <c r="M4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,4</v>
+        <v>2,11</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,3</v>
+        <v>2,12</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,2</v>
+        <v>2,13</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>13,1</v>
+        <v>2,14</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>13,0</v>
+        <v>2,15</v>
       </c>
       <c r="T4" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>1</v>
@@ -937,74 +937,74 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>12,15</v>
+        <v>3,0</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,14</v>
+        <v>3,1</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,13</v>
+        <v>3,2</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,12</v>
+        <v>3,3</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,11</v>
+        <v>3,4</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,10</v>
+        <v>3,5</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,9</v>
+        <v>3,6</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,8</v>
+        <v>3,7</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,7</v>
+        <v>3,8</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,6</v>
+        <v>3,9</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,5</v>
+        <v>3,10</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,4</v>
+        <v>3,11</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,3</v>
+        <v>3,12</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,2</v>
+        <v>3,13</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12,1</v>
+        <v>3,14</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>12,0</v>
+        <v>3,15</v>
       </c>
       <c r="T5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>1</v>
@@ -1059,74 +1059,74 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11,15</v>
+        <v>4,0</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,14</v>
+        <v>4,1</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,13</v>
+        <v>4,2</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,12</v>
+        <v>4,3</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,11</v>
+        <v>4,4</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,10</v>
+        <v>4,5</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,9</v>
+        <v>4,6</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,8</v>
+        <v>4,7</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,7</v>
+        <v>4,8</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,6</v>
+        <v>4,9</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,5</v>
+        <v>4,10</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,4</v>
+        <v>4,11</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,3</v>
+        <v>4,12</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,2</v>
+        <v>4,13</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11,1</v>
+        <v>4,14</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>11,0</v>
+        <v>4,15</v>
       </c>
       <c r="T6" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>1</v>
@@ -1181,74 +1181,74 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10,15</v>
+        <v>5,0</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,14</v>
+        <v>5,1</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,13</v>
+        <v>5,2</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,12</v>
+        <v>5,3</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,11</v>
+        <v>5,4</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,10</v>
+        <v>5,5</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,9</v>
+        <v>5,6</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,8</v>
+        <v>5,7</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,7</v>
+        <v>5,8</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,6</v>
+        <v>5,9</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,5</v>
+        <v>5,10</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,4</v>
+        <v>5,11</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,3</v>
+        <v>5,12</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,2</v>
+        <v>5,13</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10,1</v>
+        <v>5,14</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>10,0</v>
+        <v>5,15</v>
       </c>
       <c r="T7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>1</v>
@@ -1303,74 +1303,74 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>9,15</v>
+        <v>6,0</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,14</v>
+        <v>6,1</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,13</v>
+        <v>6,2</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,12</v>
+        <v>6,3</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,11</v>
+        <v>6,4</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,10</v>
+        <v>6,5</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,9</v>
+        <v>6,6</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,8</v>
+        <v>6,7</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,7</v>
+        <v>6,8</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,6</v>
+        <v>6,9</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,5</v>
+        <v>6,10</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,4</v>
+        <v>6,11</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,3</v>
+        <v>6,12</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,2</v>
+        <v>6,13</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9,1</v>
+        <v>6,14</v>
       </c>
       <c r="Q8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>9,0</v>
+        <v>6,15</v>
       </c>
       <c r="T8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>1</v>
@@ -1423,74 +1423,74 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>8,15</v>
+        <v>7,0</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,14</v>
+        <v>7,1</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,13</v>
+        <v>7,2</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,12</v>
+        <v>7,3</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,11</v>
+        <v>7,4</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,10</v>
+        <v>7,5</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,9</v>
+        <v>7,6</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,8</v>
+        <v>7,7</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,7</v>
+        <v>7,8</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,6</v>
+        <v>7,9</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,5</v>
+        <v>7,10</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,4</v>
+        <v>7,11</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,3</v>
+        <v>7,12</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,2</v>
+        <v>7,13</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8,1</v>
+        <v>7,14</v>
       </c>
       <c r="Q9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>8,0</v>
+        <v>7,15</v>
       </c>
       <c r="T9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>1</v>
@@ -1543,74 +1543,74 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>7,15</v>
+        <v>8,0</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,14</v>
+        <v>8,1</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,13</v>
+        <v>8,2</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,12</v>
+        <v>8,3</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,11</v>
+        <v>8,4</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,10</v>
+        <v>8,5</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,9</v>
+        <v>8,6</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,8</v>
+        <v>8,7</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,7</v>
+        <v>8,8</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,6</v>
+        <v>8,9</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,5</v>
+        <v>8,10</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,4</v>
+        <v>8,11</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,3</v>
+        <v>8,12</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,2</v>
+        <v>8,13</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7,1</v>
+        <v>8,14</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>7,0</v>
+        <v>8,15</v>
       </c>
       <c r="T10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>1</v>
@@ -1663,74 +1663,74 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>6,15</v>
+        <v>9,0</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,14</v>
+        <v>9,1</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,13</v>
+        <v>9,2</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,12</v>
+        <v>9,3</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,11</v>
+        <v>9,4</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,10</v>
+        <v>9,5</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,9</v>
+        <v>9,6</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,8</v>
+        <v>9,7</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,7</v>
+        <v>9,8</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,6</v>
+        <v>9,9</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,5</v>
+        <v>9,10</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,4</v>
+        <v>9,11</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,3</v>
+        <v>9,12</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,2</v>
+        <v>9,13</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6,1</v>
+        <v>9,14</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>6,0</v>
+        <v>9,15</v>
       </c>
       <c r="T11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>1</v>
@@ -1783,74 +1783,74 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>5,15</v>
+        <v>10,0</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,14</v>
+        <v>10,1</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,13</v>
+        <v>10,2</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,12</v>
+        <v>10,3</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,11</v>
+        <v>10,4</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,10</v>
+        <v>10,5</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,9</v>
+        <v>10,6</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,8</v>
+        <v>10,7</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,7</v>
+        <v>10,8</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,6</v>
+        <v>10,9</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,5</v>
+        <v>10,10</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,4</v>
+        <v>10,11</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,3</v>
+        <v>10,12</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,2</v>
+        <v>10,13</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5,1</v>
+        <v>10,14</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>5,0</v>
+        <v>10,15</v>
       </c>
       <c r="T12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>1</v>
@@ -1903,74 +1903,74 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4,15</v>
+        <v>11,0</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,14</v>
+        <v>11,1</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,13</v>
+        <v>11,2</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,12</v>
+        <v>11,3</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,11</v>
+        <v>11,4</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,10</v>
+        <v>11,5</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,9</v>
+        <v>11,6</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,8</v>
+        <v>11,7</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,7</v>
+        <v>11,8</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,6</v>
+        <v>11,9</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,5</v>
+        <v>11,10</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,4</v>
+        <v>11,11</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,3</v>
+        <v>11,12</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,2</v>
+        <v>11,13</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4,1</v>
+        <v>11,14</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>4,0</v>
+        <v>11,15</v>
       </c>
       <c r="T13" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>1</v>
@@ -2023,74 +2023,74 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3,15</v>
+        <v>12,0</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,14</v>
+        <v>12,1</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,13</v>
+        <v>12,2</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,12</v>
+        <v>12,3</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,11</v>
+        <v>12,4</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,10</v>
+        <v>12,5</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,9</v>
+        <v>12,6</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,8</v>
+        <v>12,7</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,7</v>
+        <v>12,8</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,6</v>
+        <v>12,9</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,5</v>
+        <v>12,10</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,4</v>
+        <v>12,11</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,3</v>
+        <v>12,12</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,2</v>
+        <v>12,13</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>3,1</v>
+        <v>12,14</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3,0</v>
+        <v>12,15</v>
       </c>
       <c r="T14" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>1</v>
@@ -2143,74 +2143,74 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2,15</v>
+        <v>13,0</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,14</v>
+        <v>13,1</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,13</v>
+        <v>13,2</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,12</v>
+        <v>13,3</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,11</v>
+        <v>13,4</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,10</v>
+        <v>13,5</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,9</v>
+        <v>13,6</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,8</v>
+        <v>13,7</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,7</v>
+        <v>13,8</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,6</v>
+        <v>13,9</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,5</v>
+        <v>13,10</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,4</v>
+        <v>13,11</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,3</v>
+        <v>13,12</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,2</v>
+        <v>13,13</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2,1</v>
+        <v>13,14</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2,0</v>
+        <v>13,15</v>
       </c>
       <c r="T15" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>1</v>
@@ -2263,74 +2263,74 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1,15</v>
+        <v>14,0</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,14</v>
+        <v>14,1</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,13</v>
+        <v>14,2</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,12</v>
+        <v>14,3</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,11</v>
+        <v>14,4</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,10</v>
+        <v>14,5</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,9</v>
+        <v>14,6</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,8</v>
+        <v>14,7</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,7</v>
+        <v>14,8</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,6</v>
+        <v>14,9</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,5</v>
+        <v>14,10</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,4</v>
+        <v>14,11</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,3</v>
+        <v>14,12</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,2</v>
+        <v>14,13</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>1,1</v>
+        <v>14,14</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1,0</v>
+        <v>14,15</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>1</v>
@@ -2383,74 +2383,74 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0,15</v>
+        <v>15,0</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,14</v>
+        <v>15,1</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,13</v>
+        <v>15,2</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,12</v>
+        <v>15,3</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,11</v>
+        <v>15,4</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,10</v>
+        <v>15,5</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,9</v>
+        <v>15,6</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,8</v>
+        <v>15,7</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,7</v>
+        <v>15,8</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,6</v>
+        <v>15,9</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,5</v>
+        <v>15,10</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,4</v>
+        <v>15,11</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,3</v>
+        <v>15,12</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,2</v>
+        <v>15,13</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0,1</v>
+        <v>15,14</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0,0</v>
+        <v>15,15</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>1</v>
@@ -2511,100 +2511,100 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>11</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI20" s="1">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>9</v>
-      </c>
-      <c r="I20" s="1">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1">
-        <v>7</v>
-      </c>
-      <c r="K20" s="1">
-        <v>6</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1">
-        <v>3</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="AJ20" s="1">
         <v>15</v>
-      </c>
-      <c r="V20" s="1">
-        <v>14</v>
-      </c>
-      <c r="W20" s="1">
-        <v>13</v>
-      </c>
-      <c r="X20" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>4</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -2657,11 +2657,11 @@
         <v>1</v>
       </c>
       <c r="T21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1" t="str">
         <f>IF(B21="O","",CONCATENATE(B2,";-1"))</f>
-        <v>15,15;-1</v>
+        <v>0,0;-1</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" ref="V21:AJ36" si="3">IF(C21="O","",CONCATENATE(C2,";-1"))</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="AC21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>15,7;-1</v>
+        <v>0,8;-1</v>
       </c>
       <c r="AD21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1" t="str">
         <f t="shared" ref="U22:U36" si="4">IF(B22="O","",CONCATENATE(B3,";-1"))</f>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AC22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>14,7;-1</v>
+        <v>1,8;-1</v>
       </c>
       <c r="AD22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="AC23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>13,7;-1</v>
+        <v>2,8;-1</v>
       </c>
       <c r="AD23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="AC24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>12,7;-1</v>
+        <v>3,8;-1</v>
       </c>
       <c r="AD24" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="AC25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>11,7;-1</v>
+        <v>4,8;-1</v>
       </c>
       <c r="AD25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="AC26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>10,7;-1</v>
+        <v>5,8;-1</v>
       </c>
       <c r="AD26" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AC27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>9,7;-1</v>
+        <v>6,8;-1</v>
       </c>
       <c r="AD27" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3518,19 +3518,19 @@
       </c>
       <c r="Z28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>8,10;-1</v>
+        <v>7,5;-1</v>
       </c>
       <c r="AA28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>8,9;-1</v>
+        <v>7,6;-1</v>
       </c>
       <c r="AB28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>8,8;-1</v>
+        <v>7,7;-1</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>8,7;-1</v>
+        <v>7,8;-1</v>
       </c>
       <c r="AD28" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="Z29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>7,10;-1</v>
+        <v>8,5;-1</v>
       </c>
       <c r="AA29" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="Z30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>6,10;-1</v>
+        <v>9,5;-1</v>
       </c>
       <c r="AA30" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="Z31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5,10;-1</v>
+        <v>10,5;-1</v>
       </c>
       <c r="AA31" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="Z32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>4,10;-1</v>
+        <v>11,5;-1</v>
       </c>
       <c r="AA32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="Z33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>3,10;-1</v>
+        <v>12,5;-1</v>
       </c>
       <c r="AA33" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U34" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="Z34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2,10;-1</v>
+        <v>13,5;-1</v>
       </c>
       <c r="AA34" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U35" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="Z35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>1,10;-1</v>
+        <v>14,5;-1</v>
       </c>
       <c r="AA35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
@@ -4466,11 +4466,11 @@
         <v>1</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0,15;-1</v>
+        <v>15,0;-1</v>
       </c>
       <c r="V36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="Z36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0,10;-1</v>
+        <v>15,5;-1</v>
       </c>
       <c r="AA36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="AJ36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0,0;-1</v>
+        <v>15,15;-1</v>
       </c>
       <c r="AM36" s="1" t="s">
         <v>20</v>
@@ -4557,106 +4557,106 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>8</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9</v>
+      </c>
+      <c r="L41" s="1">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1">
+        <v>12</v>
+      </c>
+      <c r="O41" s="1">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>2</v>
+      </c>
+      <c r="X41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI41" s="1">
         <v>14</v>
       </c>
-      <c r="D41" s="1">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1">
-        <v>10</v>
-      </c>
-      <c r="H41" s="1">
-        <v>9</v>
-      </c>
-      <c r="I41" s="1">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1">
-        <v>7</v>
-      </c>
-      <c r="K41" s="1">
-        <v>6</v>
-      </c>
-      <c r="L41" s="1">
-        <v>5</v>
-      </c>
-      <c r="M41" s="1">
-        <v>4</v>
-      </c>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>2</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
+      <c r="AJ41" s="1">
         <v>15</v>
-      </c>
-      <c r="V41" s="1">
-        <v>14</v>
-      </c>
-      <c r="W41" s="1">
-        <v>13</v>
-      </c>
-      <c r="X41" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>11</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0</v>
       </c>
       <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1" t="str">
         <f>IF(B42="O","",CONCATENATE(B2,";-1"))</f>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="W42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,13;-1</v>
+        <v>0,2;-1</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="AF42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>15,4;-1</v>
+        <v>0,11;-1</v>
       </c>
       <c r="AG42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1" t="str">
         <f t="shared" ref="U43:U57" si="6">IF(B43="O","",CONCATENATE(B3,";-1"))</f>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,13;-1</v>
+        <v>1,2;-1</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="AF43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>14,4;-1</v>
+        <v>1,11;-1</v>
       </c>
       <c r="AG43" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U44" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,13;-1</v>
+        <v>2,2;-1</v>
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="AF44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>13,4;-1</v>
+        <v>2,11;-1</v>
       </c>
       <c r="AG44" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="T45" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U45" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,13;-1</v>
+        <v>3,2;-1</v>
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5053,31 +5053,31 @@
       </c>
       <c r="AA45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,9;-1</v>
+        <v>3,6;-1</v>
       </c>
       <c r="AB45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,8;-1</v>
+        <v>3,7;-1</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,7;-1</v>
+        <v>3,8;-1</v>
       </c>
       <c r="AD45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,6;-1</v>
+        <v>3,9;-1</v>
       </c>
       <c r="AE45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,5;-1</v>
+        <v>3,10;-1</v>
       </c>
       <c r="AF45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,4;-1</v>
+        <v>3,11;-1</v>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>12,3;-1</v>
+        <v>3,12;-1</v>
       </c>
       <c r="AH45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U46" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5139,23 +5139,23 @@
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,13;-1</v>
+        <v>4,2;-1</v>
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,12;-1</v>
+        <v>4,3;-1</v>
       </c>
       <c r="Y46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,11;-1</v>
+        <v>4,4;-1</v>
       </c>
       <c r="Z46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,10;-1</v>
+        <v>4,5;-1</v>
       </c>
       <c r="AA46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,9;-1</v>
+        <v>4,6;-1</v>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>11,3;-1</v>
+        <v>4,12;-1</v>
       </c>
       <c r="AH46" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="T47" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U47" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5258,11 +5258,11 @@
       </c>
       <c r="Y47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,11;-1</v>
+        <v>5,4;-1</v>
       </c>
       <c r="Z47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,10;-1</v>
+        <v>5,5;-1</v>
       </c>
       <c r="AA47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="AG47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10,3;-1</v>
+        <v>5,12;-1</v>
       </c>
       <c r="AH47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="T48" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U48" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="Y48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,11;-1</v>
+        <v>6,4;-1</v>
       </c>
       <c r="Z48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5376,23 +5376,23 @@
       </c>
       <c r="AC48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,7;-1</v>
+        <v>6,8;-1</v>
       </c>
       <c r="AD48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,6;-1</v>
+        <v>6,9;-1</v>
       </c>
       <c r="AE48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,5;-1</v>
+        <v>6,10;-1</v>
       </c>
       <c r="AF48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,4;-1</v>
+        <v>6,11;-1</v>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>9,3;-1</v>
+        <v>6,12;-1</v>
       </c>
       <c r="AH48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U49" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="Y49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,11;-1</v>
+        <v>7,4;-1</v>
       </c>
       <c r="Z49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="AC49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8,7;-1</v>
+        <v>7,8;-1</v>
       </c>
       <c r="AD49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="AF49" s="1" t="str">
         <f>IF(M49="O","",CONCATENATE(M9,";-1"))</f>
-        <v>8,4;-1</v>
+        <v>7,11;-1</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U50" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Y50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,11;-1</v>
+        <v>8,4;-1</v>
       </c>
       <c r="Z50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="AC50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,7;-1</v>
+        <v>8,8;-1</v>
       </c>
       <c r="AD50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AF50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>7,4;-1</v>
+        <v>8,11;-1</v>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U51" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Y51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,11;-1</v>
+        <v>9,4;-1</v>
       </c>
       <c r="Z51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,7;-1</v>
+        <v>9,8;-1</v>
       </c>
       <c r="AD51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="AF51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6,4;-1</v>
+        <v>9,11;-1</v>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="T52" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U52" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="Y52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,11;-1</v>
+        <v>10,4;-1</v>
       </c>
       <c r="Z52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="AC52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,7;-1</v>
+        <v>10,8;-1</v>
       </c>
       <c r="AD52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="AF52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>5,4;-1</v>
+        <v>10,11;-1</v>
       </c>
       <c r="AG52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U53" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5892,15 +5892,15 @@
       </c>
       <c r="W53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,13;-1</v>
+        <v>11,2;-1</v>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,12;-1</v>
+        <v>11,3;-1</v>
       </c>
       <c r="Y53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,11;-1</v>
+        <v>11,4;-1</v>
       </c>
       <c r="Z53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="AC53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,7;-1</v>
+        <v>11,8;-1</v>
       </c>
       <c r="AD53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5928,19 +5928,19 @@
       </c>
       <c r="AF53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,4;-1</v>
+        <v>11,11;-1</v>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,3;-1</v>
+        <v>11,12;-1</v>
       </c>
       <c r="AH53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,2;-1</v>
+        <v>11,13;-1</v>
       </c>
       <c r="AI53" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>4,1;-1</v>
+        <v>11,14;-1</v>
       </c>
       <c r="AJ53" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="T54" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U54" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="W54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,13;-1</v>
+        <v>12,2;-1</v>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="AC54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>3,7;-1</v>
+        <v>12,8;-1</v>
       </c>
       <c r="AD54" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="T55" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U55" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="W55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,13;-1</v>
+        <v>13,2;-1</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="AC55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>2,7;-1</v>
+        <v>13,8;-1</v>
       </c>
       <c r="AD55" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U56" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="W56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,13;-1</v>
+        <v>14,2;-1</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="AC56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>1,7;-1</v>
+        <v>14,8;-1</v>
       </c>
       <c r="AD56" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U57" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,13;-1</v>
+        <v>15,2;-1</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="AC57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0,7;-1</v>
+        <v>15,8;-1</v>
       </c>
       <c r="AD57" s="1" t="str">
         <f t="shared" si="5"/>
